--- a/R_Logit_Models/Location_Choice/SocioEconomicVars/Proposed_Results.xlsx
+++ b/R_Logit_Models/Location_Choice/SocioEconomicVars/Proposed_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\R_Logit_Models\Location_Choice\SocioEconomicVars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E2AA7C-8F88-48CD-9445-0EA1089173BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDF60F-046B-4AFE-BDB1-8595CF2F4523}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{841A246B-C6EF-457E-8DA8-E6972D33CBCB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Ref</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>Cars + Adults (8 Levels) + Children + Income + Licence + Work</t>
+  </si>
+  <si>
+    <t>Segmented gravity</t>
+  </si>
+  <si>
+    <t>Segmented work</t>
+  </si>
+  <si>
+    <t>Segmented work+cars</t>
   </si>
 </sst>
 </file>
@@ -158,8 +167,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -178,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -186,14 +195,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +543,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +551,7 @@
     <col min="1" max="1" width="52.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
@@ -1000,53 +1033,55 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>-2.5441174215428299</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>-4.1911620244522796</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>-2.3718226203403301</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>-2.8862273175942601</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>-4.4946109457372296</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>-0.70028331414670597</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>-0.103098730910299</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>0.38045552692066598</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>0.25142024674646302</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0.25743235826369898</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>0.253329863703874</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>0.16497324850911099</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>0.38113344189176801</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="4">
         <v>0.20637463191654001</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1094,7 +1129,7 @@
       <c r="O12" s="2">
         <v>0.20676798816463299</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1142,7 +1177,7 @@
       <c r="O13" s="2">
         <v>0.20755195155419801</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1190,7 +1225,7 @@
       <c r="O14" s="2">
         <v>0.208049191056002</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="6"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1239,7 +1274,7 @@
       <c r="O15" s="2">
         <v>0.20801582210879099</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
@@ -1289,7 +1324,7 @@
       <c r="O16" s="2">
         <v>0.20842455792751899</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1337,7 +1372,7 @@
       <c r="O17" s="2">
         <v>0.20948557162666401</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1385,7 +1420,7 @@
       <c r="O18" s="2">
         <v>0.20962069968133801</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1433,7 +1468,7 @@
       <c r="O19" s="2">
         <v>0.21118861445270601</v>
       </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -1481,7 +1516,7 @@
       <c r="O20" s="2">
         <v>0.213087878189121</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1529,7 +1564,7 @@
       <c r="O21" s="2">
         <v>0.214801783526612</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1577,52 +1612,56 @@
       <c r="O22" s="2">
         <v>0.21542119547643601</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>-2.5988197671752999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>-4.1568885095794297</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>-2.2510428998863499</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>-2.8416397344500299</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>-4.5306840386061999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>-0.80760086570354905</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>-0.103461854169658</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>0.38934317754405501</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>0.25923635501419801</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>0.26399540956894002</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <v>0.26044765324973801</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="4">
         <v>0.17706402771339899</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="4">
         <v>0.38810444404612399</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="4">
         <v>0.21664477130088899</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -1671,6 +1710,7 @@
       <c r="O24" s="2">
         <v>0.2182536556994</v>
       </c>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -1718,52 +1758,56 @@
       <c r="O25" s="2">
         <v>0.21976218080739199</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>-2.7193562428356999</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>-20.390124322000901</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>-2.8033074870418702</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>-17.276558970846398</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>-4.2446216457918302</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>-2.9582273929974598</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>-0.103421617957364</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <v>0.38962178728146601</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="4">
         <v>0.26107351813105001</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>0.26596122808447997</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="4">
         <v>0.26228830995654201</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="4">
         <v>0.17802838508798</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="4">
         <v>0.391269522853118</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="4">
         <v>0.221026296318062</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/R_Logit_Models/Location_Choice/SocioEconomicVars/Proposed_Results.xlsx
+++ b/R_Logit_Models/Location_Choice/SocioEconomicVars/Proposed_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\R_Logit_Models\Location_Choice\SocioEconomicVars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDF60F-046B-4AFE-BDB1-8595CF2F4523}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB344D4-5A56-487B-B2C9-4EE4D81E1D36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{841A246B-C6EF-457E-8DA8-E6972D33CBCB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Ref</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Segmented work+cars</t>
+  </si>
+  <si>
+    <t>Segmented full</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,11 +207,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -224,6 +238,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -540,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A559D-178B-456B-8A7E-33BCC4FCC529}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,6 +1827,14 @@
       </c>
       <c r="Q26" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="10">
+        <v>0.39646900614884256</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N1048576 N1:N17">
+  <conditionalFormatting sqref="N29:N1048576 N19:N27 N1:N17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1840,7 +1867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N29:N1048576 N1:N27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
